--- a/基本設計書_イベント更新.xlsx
+++ b/基本設計書_イベント更新.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/kadai_sekkei/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19CF51CA-11B8-4E21-B4BA-67CA6E61DCF7}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CFDBBAB3-18FD-4ACB-B9BF-FD939873E6ED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" tabRatio="774" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="16920" windowHeight="10340" tabRatio="774" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="26" r:id="rId1"/>
     <sheet name="IO関連図" sheetId="13" r:id="rId2"/>
-    <sheet name="画面レイアウト_イベント変更画面" sheetId="38" r:id="rId3"/>
+    <sheet name="画面レイアウト_イベント更新画面" sheetId="39" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">IO関連図!$A$1:$AG$42</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">画面レイアウト_イベント変更画面!$A$1:$AG$54</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">画面レイアウト_イベント更新画面!$A$1:$AG$71</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$AF$43</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">IO関連図!$1:$2</definedName>
   </definedNames>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>システム名</t>
     <rPh sb="4" eb="5">
@@ -223,13 +223,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>イベント変更</t>
-    <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>イベント更新画面</t>
     <rPh sb="4" eb="6">
       <t>コウシン</t>
@@ -240,9 +233,16 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>イベント変更画面</t>
+    <t>写真</t>
+    <rPh sb="0" eb="2">
+      <t>シャシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>イベント更新画面</t>
     <rPh sb="4" eb="6">
-      <t>ヘンコウ</t>
+      <t>コウシン</t>
     </rPh>
     <rPh sb="6" eb="8">
       <t>ガメン</t>
@@ -250,9 +250,16 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>写真</t>
-    <rPh sb="0" eb="2">
-      <t>シャシン</t>
+    <t>イベント更新</t>
+    <rPh sb="4" eb="6">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>○○が更新されました。</t>
+    <rPh sb="3" eb="5">
+      <t>コウシン</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -536,7 +543,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1"/>
@@ -608,6 +615,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1"/>
@@ -659,9 +669,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1650,7 +1658,7 @@
               <a:latin typeface="ＭＳ Ｐゴシック"/>
               <a:ea typeface="ＭＳ Ｐゴシック"/>
             </a:rPr>
-            <a:t>イベント一覧画面</a:t>
+            <a:t>イベント更新完了画面</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1871,7 +1879,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D357C65-6019-4336-9C44-0DFAE9B10884}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E4D06A4-0EBE-4E06-8BA9-784A88E6667B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1919,7 +1927,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>変更する</a:t>
+            <a:t>更新する</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1944,7 +1952,7 @@
         <xdr:cNvPr id="3" name="テキスト ボックス 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D246F9A6-9210-4790-B64C-02BB5E9B14C4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC3236F5-44E7-4374-BED4-C57B0ED284EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2009,7 +2017,7 @@
         <xdr:cNvPr id="4" name="テキスト ボックス 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA4497E1-4D62-41D1-8B02-436D87643456}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AEB6B03-C2D9-4813-B42F-98A582DEFE3F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2074,7 +2082,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BD79754-E523-4CC9-B6F7-F75C462EFD60}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F779761-F410-4C37-9E3F-45671F5BA717}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2139,7 +2147,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78A6F627-08A9-46EA-A802-DA3BB4F38F91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2002255D-846E-4004-A93A-7C66ECA97618}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2181,6 +2189,79 @@
         <a:lstStyle/>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0014D190-021D-4AE7-B602-31A9F4CA3CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3676650" y="10636250"/>
+          <a:ext cx="933450" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent3">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>イベントへ</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2488,7 +2569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:IV43"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F26" sqref="F26:I26"/>
     </sheetView>
   </sheetViews>
@@ -2965,18 +3046,18 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="20"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="55"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
+      <c r="K8" s="55"/>
+      <c r="L8" s="55"/>
+      <c r="M8" s="55"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="55"/>
+      <c r="P8" s="55"/>
+      <c r="Q8" s="56"/>
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
@@ -2995,26 +3076,26 @@
     </row>
     <row r="9" spans="1:256" ht="13" customHeight="1">
       <c r="A9" s="16"/>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="62" t="s">
+      <c r="C9" s="58"/>
+      <c r="D9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="63"/>
-      <c r="K9" s="63"/>
-      <c r="L9" s="63"/>
-      <c r="M9" s="63"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+      <c r="M9" s="64"/>
+      <c r="N9" s="64"/>
+      <c r="O9" s="64"/>
+      <c r="P9" s="64"/>
+      <c r="Q9" s="65"/>
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
@@ -3033,22 +3114,22 @@
     </row>
     <row r="10" spans="1:256" ht="13" customHeight="1">
       <c r="A10" s="16"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="66"/>
-      <c r="H10" s="66"/>
-      <c r="I10" s="66"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="66"/>
-      <c r="L10" s="66"/>
-      <c r="M10" s="66"/>
-      <c r="N10" s="66"/>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="67"/>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="62"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="68"/>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
@@ -3259,26 +3340,26 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="68" t="s">
+      <c r="H17" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="68"/>
-      <c r="J17" s="68"/>
-      <c r="K17" s="68"/>
-      <c r="L17" s="68"/>
-      <c r="M17" s="68"/>
-      <c r="N17" s="68"/>
-      <c r="O17" s="68"/>
-      <c r="P17" s="68"/>
-      <c r="Q17" s="68"/>
-      <c r="R17" s="68"/>
-      <c r="S17" s="68"/>
-      <c r="T17" s="68"/>
-      <c r="U17" s="68"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="68"/>
-      <c r="X17" s="68"/>
-      <c r="Y17" s="68"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="69"/>
+      <c r="K17" s="69"/>
+      <c r="L17" s="69"/>
+      <c r="M17" s="69"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="69"/>
+      <c r="P17" s="69"/>
+      <c r="Q17" s="69"/>
+      <c r="R17" s="69"/>
+      <c r="S17" s="69"/>
+      <c r="T17" s="69"/>
+      <c r="U17" s="69"/>
+      <c r="V17" s="69"/>
+      <c r="W17" s="69"/>
+      <c r="X17" s="69"/>
+      <c r="Y17" s="69"/>
       <c r="AA17" s="13"/>
       <c r="AB17" s="13"/>
       <c r="AC17" s="13"/>
@@ -3294,24 +3375,24 @@
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
-      <c r="R18" s="68"/>
-      <c r="S18" s="68"/>
-      <c r="T18" s="68"/>
-      <c r="U18" s="68"/>
-      <c r="V18" s="68"/>
-      <c r="W18" s="68"/>
-      <c r="X18" s="68"/>
-      <c r="Y18" s="68"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="69"/>
+      <c r="K18" s="69"/>
+      <c r="L18" s="69"/>
+      <c r="M18" s="69"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="69"/>
+      <c r="P18" s="69"/>
+      <c r="Q18" s="69"/>
+      <c r="R18" s="69"/>
+      <c r="S18" s="69"/>
+      <c r="T18" s="69"/>
+      <c r="U18" s="69"/>
+      <c r="V18" s="69"/>
+      <c r="W18" s="69"/>
+      <c r="X18" s="69"/>
+      <c r="Y18" s="69"/>
       <c r="AA18" s="13"/>
       <c r="AB18" s="13"/>
       <c r="AC18" s="13"/>
@@ -3327,24 +3408,24 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="68"/>
-      <c r="I19" s="68"/>
-      <c r="J19" s="68"/>
-      <c r="K19" s="68"/>
-      <c r="L19" s="68"/>
-      <c r="M19" s="68"/>
-      <c r="N19" s="68"/>
-      <c r="O19" s="68"/>
-      <c r="P19" s="68"/>
-      <c r="Q19" s="68"/>
-      <c r="R19" s="68"/>
-      <c r="S19" s="68"/>
-      <c r="T19" s="68"/>
-      <c r="U19" s="68"/>
-      <c r="V19" s="68"/>
-      <c r="W19" s="68"/>
-      <c r="X19" s="68"/>
-      <c r="Y19" s="68"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="69"/>
+      <c r="K19" s="69"/>
+      <c r="L19" s="69"/>
+      <c r="M19" s="69"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="69"/>
+      <c r="P19" s="69"/>
+      <c r="Q19" s="69"/>
+      <c r="R19" s="69"/>
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
       <c r="Z19" s="13"/>
       <c r="AA19" s="13"/>
       <c r="AB19" s="13"/>
@@ -3572,12 +3653,12 @@
       <c r="C26" s="23"/>
       <c r="D26" s="23"/>
       <c r="E26" s="23"/>
-      <c r="F26" s="69">
+      <c r="F26" s="70">
         <v>45940</v>
       </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="71"/>
+      <c r="G26" s="71"/>
+      <c r="H26" s="71"/>
+      <c r="I26" s="72"/>
       <c r="J26" s="22" t="s">
         <v>15</v>
       </c>
@@ -4204,7 +4285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:FU42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:AC3"/>
     </sheetView>
   </sheetViews>
@@ -4218,121 +4299,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
-      <c r="I1" s="72"/>
-      <c r="J1" s="72"/>
-      <c r="K1" s="72"/>
-      <c r="L1" s="72"/>
-      <c r="M1" s="72"/>
-      <c r="N1" s="72"/>
-      <c r="O1" s="72"/>
-      <c r="P1" s="72"/>
-      <c r="Q1" s="72"/>
-      <c r="R1" s="72"/>
-      <c r="S1" s="72"/>
-      <c r="T1" s="72"/>
-      <c r="U1" s="72"/>
-      <c r="V1" s="72"/>
-      <c r="W1" s="72"/>
-      <c r="X1" s="72"/>
-      <c r="Y1" s="72"/>
-      <c r="Z1" s="72"/>
-      <c r="AA1" s="72"/>
-      <c r="AB1" s="72"/>
-      <c r="AC1" s="72"/>
-      <c r="AD1" s="72"/>
-      <c r="AE1" s="72"/>
-      <c r="AF1" s="72"/>
-      <c r="AG1" s="72"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="73"/>
+      <c r="T1" s="73"/>
+      <c r="U1" s="73"/>
+      <c r="V1" s="73"/>
+      <c r="W1" s="73"/>
+      <c r="X1" s="73"/>
+      <c r="Y1" s="73"/>
+      <c r="Z1" s="73"/>
+      <c r="AA1" s="73"/>
+      <c r="AB1" s="73"/>
+      <c r="AC1" s="73"/>
+      <c r="AD1" s="73"/>
+      <c r="AE1" s="73"/>
+      <c r="AF1" s="73"/>
+      <c r="AG1" s="73"/>
     </row>
     <row r="2" spans="1:177" ht="13" customHeight="1">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="73" t="s">
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="74" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="74"/>
-      <c r="N2" s="74"/>
-      <c r="O2" s="74"/>
-      <c r="P2" s="74"/>
-      <c r="Q2" s="74"/>
-      <c r="R2" s="74"/>
-      <c r="S2" s="74"/>
-      <c r="T2" s="74"/>
-      <c r="U2" s="74"/>
-      <c r="V2" s="74"/>
-      <c r="W2" s="74"/>
-      <c r="X2" s="74"/>
-      <c r="Y2" s="74"/>
-      <c r="Z2" s="74"/>
-      <c r="AA2" s="74"/>
-      <c r="AB2" s="74"/>
-      <c r="AC2" s="75"/>
-      <c r="AD2" s="73" t="s">
+      <c r="H2" s="75"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="75"/>
+      <c r="Q2" s="75"/>
+      <c r="R2" s="75"/>
+      <c r="S2" s="75"/>
+      <c r="T2" s="75"/>
+      <c r="U2" s="75"/>
+      <c r="V2" s="75"/>
+      <c r="W2" s="75"/>
+      <c r="X2" s="75"/>
+      <c r="Y2" s="75"/>
+      <c r="Z2" s="75"/>
+      <c r="AA2" s="75"/>
+      <c r="AB2" s="75"/>
+      <c r="AC2" s="76"/>
+      <c r="AD2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="75"/>
-      <c r="AF2" s="73" t="s">
+      <c r="AE2" s="76"/>
+      <c r="AF2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="75"/>
+      <c r="AG2" s="76"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="73"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="74"/>
-      <c r="D3" s="74"/>
-      <c r="E3" s="74"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="73" t="s">
-        <v>27</v>
+      <c r="A3" s="74"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="74" t="s">
+        <v>26</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="74"/>
-      <c r="J3" s="74"/>
-      <c r="K3" s="74"/>
-      <c r="L3" s="74"/>
-      <c r="M3" s="74"/>
-      <c r="N3" s="74"/>
-      <c r="O3" s="74"/>
-      <c r="P3" s="74"/>
-      <c r="Q3" s="74"/>
-      <c r="R3" s="74"/>
-      <c r="S3" s="74"/>
-      <c r="T3" s="74"/>
-      <c r="U3" s="74"/>
-      <c r="V3" s="74"/>
-      <c r="W3" s="74"/>
-      <c r="X3" s="74"/>
-      <c r="Y3" s="74"/>
-      <c r="Z3" s="74"/>
-      <c r="AA3" s="74"/>
-      <c r="AB3" s="74"/>
-      <c r="AC3" s="75"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="75"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="75"/>
+      <c r="R3" s="75"/>
+      <c r="S3" s="75"/>
+      <c r="T3" s="75"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="75"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
+      <c r="Z3" s="75"/>
+      <c r="AA3" s="75"/>
+      <c r="AB3" s="75"/>
+      <c r="AC3" s="76"/>
+      <c r="AD3" s="74"/>
+      <c r="AE3" s="76"/>
+      <c r="AF3" s="74"/>
+      <c r="AG3" s="76"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="5"/>
       <c r="AJ3" s="5"/>
@@ -5869,11 +5950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFA26DA1-BC88-49EC-9A22-864B74F8691C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7085E38A-7A7E-4DD3-AEF8-DB5C52EDA03A}">
   <dimension ref="A1:AG75"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A13" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
-      <selection activeCell="X17" sqref="X17"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A46" zoomScale="99" zoomScaleNormal="100" zoomScaleSheetLayoutView="99" workbookViewId="0">
+      <selection activeCell="AI38" sqref="AI38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13"/>
@@ -5882,121 +5963,121 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="77"/>
+      <c r="T1" s="77"/>
+      <c r="U1" s="77"/>
+      <c r="V1" s="77"/>
+      <c r="W1" s="77"/>
+      <c r="X1" s="77"/>
+      <c r="Y1" s="77"/>
+      <c r="Z1" s="77"/>
+      <c r="AA1" s="77"/>
+      <c r="AB1" s="77"/>
+      <c r="AC1" s="77"/>
+      <c r="AD1" s="77"/>
+      <c r="AE1" s="77"/>
+      <c r="AF1" s="77"/>
+      <c r="AG1" s="77"/>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="77" t="s">
+      <c r="B2" s="79"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
+      <c r="G2" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="78"/>
-      <c r="M2" s="78"/>
-      <c r="N2" s="78"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="78"/>
-      <c r="Q2" s="78"/>
-      <c r="R2" s="78"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="78"/>
-      <c r="U2" s="78"/>
-      <c r="V2" s="78"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="78"/>
-      <c r="Y2" s="78"/>
-      <c r="Z2" s="78"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="78"/>
-      <c r="AC2" s="79"/>
-      <c r="AD2" s="77" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="79"/>
+      <c r="P2" s="79"/>
+      <c r="Q2" s="79"/>
+      <c r="R2" s="79"/>
+      <c r="S2" s="79"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="79"/>
+      <c r="X2" s="79"/>
+      <c r="Y2" s="79"/>
+      <c r="Z2" s="79"/>
+      <c r="AA2" s="79"/>
+      <c r="AB2" s="79"/>
+      <c r="AC2" s="80"/>
+      <c r="AD2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="79"/>
-      <c r="AF2" s="77" t="s">
+      <c r="AE2" s="80"/>
+      <c r="AF2" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="AG2" s="79"/>
+      <c r="AG2" s="80"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="77"/>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="77" t="s">
+      <c r="A3" s="78"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="77"/>
-      <c r="AE3" s="79"/>
-      <c r="AF3" s="77"/>
-      <c r="AG3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="79"/>
+      <c r="M3" s="79"/>
+      <c r="N3" s="79"/>
+      <c r="O3" s="79"/>
+      <c r="P3" s="79"/>
+      <c r="Q3" s="79"/>
+      <c r="R3" s="79"/>
+      <c r="S3" s="79"/>
+      <c r="T3" s="79"/>
+      <c r="U3" s="79"/>
+      <c r="V3" s="79"/>
+      <c r="W3" s="79"/>
+      <c r="X3" s="79"/>
+      <c r="Y3" s="79"/>
+      <c r="Z3" s="79"/>
+      <c r="AA3" s="79"/>
+      <c r="AB3" s="79"/>
+      <c r="AC3" s="80"/>
+      <c r="AD3" s="78"/>
+      <c r="AE3" s="80"/>
+      <c r="AF3" s="78"/>
+      <c r="AG3" s="80"/>
     </row>
     <row r="4" spans="1:33">
       <c r="A4" s="40"/>
@@ -6090,7 +6171,7 @@
     </row>
     <row r="9" spans="1:33" ht="19">
       <c r="B9" s="51" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD9" s="44" t="s">
         <v>20</v>
@@ -6134,8 +6215,8 @@
       <c r="K37" s="39"/>
     </row>
     <row r="38" spans="2:32" ht="13" customHeight="1">
-      <c r="B38" s="80" t="s">
-        <v>29</v>
+      <c r="B38" s="53" t="s">
+        <v>27</v>
       </c>
       <c r="C38" s="39"/>
       <c r="D38" s="39"/>
@@ -6212,7 +6293,7 @@
       <c r="B48" s="43"/>
       <c r="AF48" s="45"/>
     </row>
-    <row r="49" spans="2:32">
+    <row r="49" spans="1:33">
       <c r="B49" s="46"/>
       <c r="C49" s="48"/>
       <c r="D49" s="48"/>
@@ -6245,6 +6326,92 @@
       <c r="AE49" s="48"/>
       <c r="AF49" s="49"/>
     </row>
+    <row r="55" spans="1:33">
+      <c r="A55" s="40"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="41"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="41"/>
+      <c r="F55" s="41"/>
+      <c r="G55" s="41"/>
+      <c r="H55" s="41"/>
+      <c r="I55" s="41"/>
+      <c r="J55" s="41"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
+      <c r="M55" s="41"/>
+      <c r="N55" s="41"/>
+      <c r="O55" s="41"/>
+      <c r="P55" s="41"/>
+      <c r="Q55" s="41"/>
+      <c r="R55" s="41"/>
+      <c r="S55" s="41"/>
+      <c r="T55" s="41"/>
+      <c r="U55" s="41"/>
+      <c r="V55" s="41"/>
+      <c r="W55" s="41"/>
+      <c r="X55" s="41"/>
+      <c r="Y55" s="41"/>
+      <c r="Z55" s="41"/>
+      <c r="AA55" s="41"/>
+      <c r="AB55" s="41"/>
+      <c r="AC55" s="41"/>
+      <c r="AD55" s="41"/>
+      <c r="AE55" s="41"/>
+      <c r="AF55" s="41"/>
+      <c r="AG55" s="42"/>
+    </row>
+    <row r="56" spans="1:33" ht="14">
+      <c r="A56" s="43"/>
+      <c r="B56" s="44" t="s">
+        <v>19</v>
+      </c>
+      <c r="AG56" s="45"/>
+    </row>
+    <row r="57" spans="1:33">
+      <c r="A57" s="43"/>
+      <c r="AG57" s="45"/>
+    </row>
+    <row r="58" spans="1:33">
+      <c r="A58" s="46"/>
+      <c r="B58" s="48"/>
+      <c r="C58" s="48"/>
+      <c r="D58" s="48"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+      <c r="G58" s="48"/>
+      <c r="H58" s="48"/>
+      <c r="I58" s="48"/>
+      <c r="J58" s="48"/>
+      <c r="K58" s="48"/>
+      <c r="L58" s="48"/>
+      <c r="M58" s="48"/>
+      <c r="N58" s="48"/>
+      <c r="O58" s="48"/>
+      <c r="P58" s="48"/>
+      <c r="Q58" s="48"/>
+      <c r="R58" s="48"/>
+      <c r="S58" s="48"/>
+      <c r="T58" s="48"/>
+      <c r="U58" s="48"/>
+      <c r="V58" s="48"/>
+      <c r="W58" s="48"/>
+      <c r="X58" s="48"/>
+      <c r="Y58" s="48"/>
+      <c r="Z58" s="48"/>
+      <c r="AA58" s="48"/>
+      <c r="AB58" s="48"/>
+      <c r="AC58" s="48"/>
+      <c r="AD58" s="48"/>
+      <c r="AE58" s="48"/>
+      <c r="AF58" s="48"/>
+      <c r="AG58" s="49"/>
+    </row>
+    <row r="61" spans="1:33" ht="21">
+      <c r="M61" s="81" t="s">
+        <v>30</v>
+      </c>
+    </row>
     <row r="70" spans="2:24" ht="13" customHeight="1">
       <c r="B70" s="39"/>
       <c r="C70" s="39"/>
@@ -6313,7 +6480,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="74" orientation="portrait" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="67" max="16383" man="1"/>
+    <brk id="54" max="32" man="1"/>
   </rowBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
